--- a/assets/disciplinas/LOM3254.xlsx
+++ b/assets/disciplinas/LOM3254.xlsx
@@ -151,11 +151,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3254.xlsx
+++ b/assets/disciplinas/LOM3254.xlsx
@@ -151,11 +151,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3254.xlsx
+++ b/assets/disciplinas/LOM3254.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,11 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>- Capacitar o aluno nas medições de corrente, tensão e potência em circuitos de corrente contínua e corrente alternada em circuitos com componentes associados em série, paralelo e misto.
-- Capacitar o aluno no manuseio de medidores de corrente, tensão, potência ativa e reativa, osciloscópio em circuitos de corrente alternada, monofásico e trifásico e sua identificação. 
-- Verificar o funcionamento de motores, circuitos de proteção e de acionamento. 
-- Verificar o funcionamento de transformador com respectivos ensaios em vazio e curto-circuito.
-- Dimensionar e medir a correção de fator de potência em circuitos c.a. monofásico e trifásico comprovando sua correção.</t>
+    <t>5982760 - Carlos Alberto Baldan</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -83,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5982760 - Carlos Alberto Baldan</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1.Resistores e código de cores. 2.Familiarização com os equipamentos eletrônicos de medição. 3. Tensão contínua. 4. Circuitos em corrente contínua. 4. Tensão alternada. 5 Circuitos RC, RL, RLC. 6. Potência ativa e reativa. 7.Fator de potência e correção do fator de potência. 8. Sistemas trifásicos. 9. Transformadores e Curva de Histerese em materiais ferromagnéticos. 10. Motor de indução e síncrono, proteção e acionamento. 11. Condutores e dispositivos de proteção.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -98,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - Resistores, identificação e associação. Familiarização com os equipamentos eletrônicos: multímetros, voltímetros e fontes de corrente contínua. Circuitos de corrente contínua.
-2 - Tensão alternada. Formas de ondas e medições com multímetro, voltímetro, amperímetro e osciloscópio. Componentes de circuitos de corrente alternada: capacitores e indutores. 
-3- Circuitos de corrente alternada. Fontes de Tensão e Corrente.
-3 - Potência ativa e reativa. Fator de potência e correção do fator de potência.
-4 - Sistemas trifásicos: tipos de ligação e medidas de tensão, corrente e potência.
-5 - Histerese em materiais ferromagnéticos. Transformadores: determinação de parâmetros.
-6 - Motor de indução e síncrono. Circuito de comando e proteção.
-7 - Condutores e dispositivos de proteção. Ensaios com condutores elétricos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -117,35 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas práticas utilizando placas contendo circuitos elétricos para medições com equipamentos eletrônicos. Máximo 2 alunos por bancada e 20 alunos por turma  para 10 bancadas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas provas (P1 e P2) e relatórios sobre tópicos da disciplina.
 NF= MR*0,2 +0,8*(P1 + P2)/2...........MR- média de notas dos relatórios</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF + RC)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>DORF, R. C.; SVOBODA, J. A.: Introdução aos Circuitos Elétricos. 8. Ed. Rio de Janeiro:LTC 2012.
-CAPUANO, G. Francisco; MARINO, M.A. Maria. Laboratório de eletricidade e eletrônica. 24.ed. São Paulo: Editora Érica
-MARKUS, Otávio. Circuitos elétricos: corrente contínua e corrente alternada  Teoria e Exercícios. 8. ed. São Paulo: Editora Érica
-MARTIGNONI, Alfonso. Ensaios de máquinas elétricas. São Paulo: Globo Editora
-SAY, M. G. Eletricidade geral eletrotécnica. São Paulo: Editora Hemus
-CARVALHO, Geraldo. Máquinas elétricas teoria e ensaios. São Paulo: Editora Érica
-KOSOW, Irving L. Máquinas elétricas e transformadores. São Paulo: Globo Editora
-MANUAL de transformadores da WEG encontrado no site. www.weg..com.br.
-MANUAL de motores elétricos de corrente alternada. Disponível: www.weg..com.br
-MANUAL de capacitores para correção de fator de potência. Disponível: www.weg..com.br, www.hf.com.br.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -512,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,114 +608,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
